--- a/archive/Sorting/07-29Sorting Morning shift.xlsx
+++ b/archive/Sorting/07-29Sorting Morning shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -49,37 +49,49 @@
     <t>Rates</t>
   </si>
   <si>
+    <t>Luis,Naula Jara</t>
+  </si>
+  <si>
+    <t>Enmanuel,Vargas Rodriguez</t>
+  </si>
+  <si>
+    <t>Manuel,Martinez Suarez</t>
+  </si>
+  <si>
+    <t>Nancy,Ovillo</t>
+  </si>
+  <si>
+    <t>Lorenzo,Peralta Santos</t>
+  </si>
+  <si>
+    <t>Audrey,Henry</t>
+  </si>
+  <si>
     <t>Yave,Caba Corona</t>
   </si>
   <si>
+    <t>Anthony,Alexander</t>
+  </si>
+  <si>
+    <t>Davis,Villavicencio Lenes</t>
+  </si>
+  <si>
+    <t>Aurelio,Mercedes Hernandez</t>
+  </si>
+  <si>
+    <t>Al,Smith</t>
+  </si>
+  <si>
+    <t>Luis,Vargas Jaquez</t>
+  </si>
+  <si>
+    <t>Jonathan,Perez Henriquez</t>
+  </si>
+  <si>
+    <t>Deron,Fuller</t>
+  </si>
+  <si>
     <t>Job-Bright,Dzameshie</t>
-  </si>
-  <si>
-    <t>Gnamien,Gbasse</t>
-  </si>
-  <si>
-    <t>Luis,Naula Jara</t>
-  </si>
-  <si>
-    <t>Manuel,Martinez Suarez</t>
-  </si>
-  <si>
-    <t>David,Ojeda Herrera</t>
-  </si>
-  <si>
-    <t>Lorenzo,Peralta Santos</t>
-  </si>
-  <si>
-    <t>Wayne,Frederick</t>
-  </si>
-  <si>
-    <t>Jamaal,Anderson</t>
-  </si>
-  <si>
-    <t>Al,Smith</t>
-  </si>
-  <si>
-    <t>Miguel,Barros</t>
   </si>
   <si>
     <t>Total</t>
@@ -476,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +534,31 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="E2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>118.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -557,31 +569,31 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100.5714285714286</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -592,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -616,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>60.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -627,31 +639,31 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>51.33333333333334</v>
+        <v>67.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,22 +674,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I7">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J7">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,31 +744,31 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>37.85714285714285</v>
+        <v>55.33333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -776,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -802,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -823,7 +835,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,10 +867,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -866,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -875,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -898,31 +916,159 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>222</v>
-      </c>
-      <c r="K13">
-        <v>244.4285714285714</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>278</v>
+      </c>
+      <c r="D17">
+        <v>185</v>
+      </c>
+      <c r="E17">
+        <v>236</v>
+      </c>
+      <c r="F17">
+        <v>209</v>
+      </c>
+      <c r="G17">
+        <v>230</v>
+      </c>
+      <c r="H17">
+        <v>252</v>
+      </c>
+      <c r="I17">
+        <v>184</v>
+      </c>
+      <c r="J17">
+        <v>160</v>
+      </c>
+      <c r="K17">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -932,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,75 +1124,99 @@
       <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>242</v>
-      </c>
-      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>278</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1061,36 +1231,48 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>257</v>
-      </c>
-      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>185</v>
+      </c>
+      <c r="R3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1105,39 +1287,51 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>318</v>
-      </c>
-      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>236</v>
+      </c>
+      <c r="R4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1146,42 +1340,54 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>294</v>
-      </c>
-      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>209</v>
+      </c>
+      <c r="R5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1193,21 +1399,33 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>140</v>
-      </c>
-      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>230</v>
+      </c>
+      <c r="R6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1216,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1237,36 +1455,48 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>198</v>
-      </c>
-      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>252</v>
+      </c>
+      <c r="R7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1275,19 +1505,31 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>282</v>
-      </c>
-      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>184</v>
+      </c>
+      <c r="R8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1295,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1310,24 +1552,36 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>222</v>
-      </c>
-      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>160</v>
+      </c>
+      <c r="R9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1346,19 +1600,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1366,19 +1620,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="E2">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>572</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1386,19 +1640,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>774</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1406,19 +1660,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="D4">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="E4">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1426,19 +1680,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="D5">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1149</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -1456,13 +1710,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1470,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="C2">
-        <v>1953</v>
+        <v>1734</v>
       </c>
       <c r="D2">
-        <v>-1547</v>
+        <v>-1566</v>
       </c>
     </row>
   </sheetData>

--- a/archive/Sorting/07-29Sorting Morning shift.xlsx
+++ b/archive/Sorting/07-29Sorting Morning shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -52,13 +52,16 @@
     <t>Luis,Naula Jara</t>
   </si>
   <si>
+    <t>Manuel,Martinez Suarez</t>
+  </si>
+  <si>
+    <t>Nancy,Ovillo</t>
+  </si>
+  <si>
     <t>Enmanuel,Vargas Rodriguez</t>
   </si>
   <si>
-    <t>Manuel,Martinez Suarez</t>
-  </si>
-  <si>
-    <t>Nancy,Ovillo</t>
+    <t>Aurelio,Mercedes Hernandez</t>
   </si>
   <si>
     <t>Lorenzo,Peralta Santos</t>
@@ -76,7 +79,7 @@
     <t>Davis,Villavicencio Lenes</t>
   </si>
   <si>
-    <t>Aurelio,Mercedes Hernandez</t>
+    <t>Elia,Uruchima</t>
   </si>
   <si>
     <t>Al,Smith</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,19 +572,19 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -593,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>80.66666666666667</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -604,31 +607,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -639,31 +642,31 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>67.66666666666667</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>62.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,31 +712,31 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H7">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>61</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>55.33333333333334</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,31 +782,31 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>43</v>
+        <v>55.33333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -814,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -849,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -870,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -905,7 +908,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -948,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -980,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1012,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1044,31 +1050,63 @@
         <v>25</v>
       </c>
       <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
         <v>278</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>185</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>236</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>209</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>230</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>252</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>184</v>
       </c>
-      <c r="J17">
-        <v>160</v>
-      </c>
-      <c r="K17">
-        <v>208</v>
+      <c r="J18">
+        <v>290</v>
+      </c>
+      <c r="K18">
+        <v>226.5714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -1078,13 +1116,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1174,11 @@
       <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1145,55 +1186,58 @@
         <v>56</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>43</v>
-      </c>
-      <c r="J2">
-        <v>35</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>19</v>
+      </c>
+      <c r="R2">
+        <v>278</v>
+      </c>
+      <c r="S2" t="s">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>19</v>
-      </c>
-      <c r="Q2">
-        <v>278</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,20 +1245,20 @@
         <v>168</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1243,13 +1287,16 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>185</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1257,26 +1304,26 @@
         <v>69</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>109</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>52</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1299,13 +1346,16 @@
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>236</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1313,20 +1363,20 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
         <v>69</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>89</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1340,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -1355,13 +1405,16 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>209</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1369,26 +1422,26 @@
         <v>3</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
         <v>64</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>74</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1411,13 +1464,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>230</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,17 +1490,17 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>59</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>102</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>72</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -1467,13 +1523,16 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>252</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,23 +1543,23 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>89</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>42</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1523,13 +1582,16 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>184</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1540,20 +1602,20 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E9">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>26</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1561,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1579,9 +1641,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>160</v>
-      </c>
-      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>290</v>
+      </c>
+      <c r="S9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1600,19 +1665,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1620,19 +1685,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="D2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F2">
-        <v>358</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1640,19 +1705,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="D3">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="F3">
-        <v>495</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1660,19 +1725,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>392</v>
+        <v>643</v>
       </c>
       <c r="D4">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="F4">
-        <v>1003</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1680,19 +1745,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>303</v>
+        <v>498</v>
       </c>
       <c r="D5">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>822</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -1710,13 +1775,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1724,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="C2">
-        <v>1734</v>
+        <v>1864</v>
       </c>
       <c r="D2">
-        <v>-1566</v>
+        <v>-1636</v>
       </c>
     </row>
   </sheetData>
